--- a/Benchmarking/liquid, olivine/Putirka2008_NewWithnoFe3_BeattieADd.xlsx
+++ b/Benchmarking/liquid, olivine/Putirka2008_NewWithnoFe3_BeattieADd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oregonstateuniversity-my.sharepoint.com/personal/wieserp_oregonstate_edu/Documents/Postdoc/PyMME/MyBarometers/Thermobar_outer/Benchmarking/liquid_only/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\OneDrive - Oregon State University\Postdoc\PyMME\MyBarometers\Thermobar_outer\Benchmarking\liquid, olivine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{71B2B7D8-EA10-411E-A75E-48F3E9E0242D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3165FBB9-CC48-400F-956D-029130681354}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9029425E-7236-47DC-8FD1-3DE769B4D2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" tabRatio="617" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <sheet name="RECalcs" sheetId="6" r:id="rId8"/>
     <sheet name="Mg# Worksheet" sheetId="5" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="500"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -9534,8 +9534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D285D941-6354-44DF-A1A1-06C32A4CEFD6}">
   <dimension ref="A1:EZ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DP4" workbookViewId="0">
-      <selection activeCell="DQ5" sqref="DQ5"/>
+    <sheetView tabSelected="1" topLeftCell="AV4" workbookViewId="0">
+      <selection activeCell="BD22" sqref="BD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="12.6"/>
@@ -10672,12 +10672,12 @@
         <v>1032.2557306701242</v>
       </c>
       <c r="BC16" s="19">
-        <f>((13603+(4.943*10^-7)*(C16-10^-5))/(6.26+2*LN(AU16)+2*LN(1.5*CV16)+2*LN(3*CW16)-CX16))-273.15</f>
-        <v>1119.2897537682315</v>
+        <f>((13603+(4.943*10^-7)*(C16*10^9-10^-5))/(6.26+2*LN(AU16)+2*LN(1.5*CV16)+2*LN(3*CW16)-CX16))-273.15</f>
+        <v>1129.4093300359746</v>
       </c>
       <c r="BD16" s="19">
-        <f>((13603+(4.943*10^-7)*(C16-10^-5))/(6.26+2*LN(AT16)+2*LN(1.5*CV16)+2*LN(3*CW16)-CX16))-273.15</f>
-        <v>1112.2460705426815</v>
+        <f>((13603+(4.943*10^-7)*(C16*10^9-10^-5))/(6.26+2*LN(AT16)+2*LN(1.5*CV16)+2*LN(3*CW16)-CX16))-273.15</f>
+        <v>1122.3144567396062</v>
       </c>
       <c r="BE16" s="19">
         <f>1/((LN(AU16)+2.158-5.115*10^-2*(N16+O16)+6.213*10^-2*R16)/(55.09*C16+4430))</f>
@@ -11129,7 +11129,7 @@
         <v>999.77990011520455</v>
       </c>
       <c r="X17" s="40">
-        <f t="shared" ref="X16:X25" si="14">-583+3141*EQ17+15779*ES17+1338.6*EV17-31440*(EQ17*ES17)+77.67*C17</f>
+        <f t="shared" ref="X17:X25" si="14">-583+3141*EQ17+15779*ES17+1338.6*EV17-31440*(EQ17*ES17)+77.67*C17</f>
         <v>987.20183441887127</v>
       </c>
       <c r="Y17" s="40">
@@ -11230,12 +11230,12 @@
         <v>965.90320013077269</v>
       </c>
       <c r="BC17" s="19">
-        <f t="shared" ref="BC17:BC25" si="29">((13603+(4.943*10^-7)*(C17-10^-5))/(6.26+2*LN(AU17)+2*LN(1.5*CV17)+2*LN(3*CW17)-CX17))-273.15</f>
-        <v>1074.7856492695705</v>
+        <f t="shared" ref="BC17:BC25" si="29">((13603+(4.943*10^-7)*(C17*10^9-10^-5))/(6.26+2*LN(AU17)+2*LN(1.5*CV17)+2*LN(3*CW17)-CX17))-273.15</f>
+        <v>1084.5817913072274</v>
       </c>
       <c r="BD17" s="19">
-        <f t="shared" ref="BD17:BD25" si="30">((13603+(4.943*10^-7)*(C17-10^-5))/(6.26+2*LN(AT17)+2*LN(1.5*CV17)+2*LN(3*CW17)-CX17))-273.15</f>
-        <v>1047.0911932799968</v>
+        <f t="shared" ref="BD17:BD25" si="30">((13603+(4.943*10^-7)*(C17*10^9-10^-5))/(6.26+2*LN(AT17)+2*LN(1.5*CV17)+2*LN(3*CW17)-CX17))-273.15</f>
+        <v>1056.6860654538614</v>
       </c>
       <c r="BE17" s="19">
         <f t="shared" ref="BE17:BE25" si="31">1/((LN(AU17)+2.158-5.115*10^-2*(N17+O17)+6.213*10^-2*R17)/(55.09*C17+4430))</f>
@@ -11781,11 +11781,11 @@
       </c>
       <c r="BC18" s="19">
         <f t="shared" si="29"/>
-        <v>1070.1557311388674</v>
+        <v>1079.9182251788206</v>
       </c>
       <c r="BD18" s="19">
         <f t="shared" si="30"/>
-        <v>1053.9348933448223</v>
+        <v>1063.5795022089615</v>
       </c>
       <c r="BE18" s="19">
         <f t="shared" si="31"/>
@@ -12331,11 +12331,11 @@
       </c>
       <c r="BC19" s="19">
         <f t="shared" si="29"/>
-        <v>1031.6321503206809</v>
+        <v>1041.1146736738301</v>
       </c>
       <c r="BD19" s="19">
         <f t="shared" si="30"/>
-        <v>996.39321584873335</v>
+        <v>1005.6196397304203</v>
       </c>
       <c r="BE19" s="19">
         <f t="shared" si="31"/>
@@ -12880,13 +12880,13 @@
         <f t="shared" si="28"/>
         <v>1004.1663657303073</v>
       </c>
-      <c r="BC20" s="191">
+      <c r="BC20" s="19">
         <f t="shared" si="29"/>
-        <v>1095.0345560474702</v>
+        <v>1104.9778573111712</v>
       </c>
       <c r="BD20" s="19">
         <f t="shared" si="30"/>
-        <v>1058.5052222885561</v>
+        <v>1068.1830460851111</v>
       </c>
       <c r="BE20" s="191">
         <f t="shared" si="31"/>
@@ -13432,11 +13432,11 @@
       </c>
       <c r="BC21" s="19">
         <f t="shared" si="29"/>
-        <v>1085.5794209259743</v>
+        <v>1095.4540068569472</v>
       </c>
       <c r="BD21" s="19">
         <f t="shared" si="30"/>
-        <v>1048.1903716633446</v>
+        <v>1057.79323213218</v>
       </c>
       <c r="BE21" s="19">
         <f t="shared" si="31"/>
@@ -13982,11 +13982,11 @@
       </c>
       <c r="BC22" s="19">
         <f t="shared" si="29"/>
-        <v>1072.5839307993188</v>
+        <v>1082.3640718158044</v>
       </c>
       <c r="BD22" s="19">
         <f t="shared" si="30"/>
-        <v>1044.4840320119906</v>
+        <v>1054.0599566032233</v>
       </c>
       <c r="BE22" s="19">
         <f t="shared" si="31"/>
@@ -14532,11 +14532,11 @@
       </c>
       <c r="BC23" s="19">
         <f t="shared" si="29"/>
-        <v>1104.0700594674859</v>
+        <v>1144.1059271342265</v>
       </c>
       <c r="BD23" s="19">
         <f t="shared" si="30"/>
-        <v>1108.5777967873973</v>
+        <v>1148.7447046416341</v>
       </c>
       <c r="BE23" s="19">
         <f t="shared" si="31"/>
@@ -15082,11 +15082,11 @@
       </c>
       <c r="BC24" s="19">
         <f t="shared" si="29"/>
-        <v>1064.890500113057</v>
+        <v>1103.7874156981952</v>
       </c>
       <c r="BD24" s="19">
         <f t="shared" si="30"/>
-        <v>1056.6945522508249</v>
+        <v>1095.3532111523195</v>
       </c>
       <c r="BE24" s="19">
         <f t="shared" si="31"/>
@@ -15632,11 +15632,11 @@
       </c>
       <c r="BC25" s="19">
         <f t="shared" si="29"/>
-        <v>1127.0538610157437</v>
+        <v>1137.2298630464184</v>
       </c>
       <c r="BD25" s="19">
         <f t="shared" si="30"/>
-        <v>1133.0609531646605</v>
+        <v>1143.2806118253502</v>
       </c>
       <c r="BE25" s="19">
         <f t="shared" si="31"/>
